--- a/Template/Example/Исходящие.xlsx
+++ b/Template/Example/Исходящие.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ImportData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chirkov_ro\Documents\GitHub\rx-util-importdata-net-core\Template\Example\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -103,9 +103,6 @@
     <t>Дата регистрации</t>
   </si>
   <si>
-    <t xml:space="preserve">№ </t>
-  </si>
-  <si>
     <t>не найден корреспондент</t>
   </si>
   <si>
@@ -176,12 +173,15 @@
   </si>
   <si>
     <t>Найдено несколько записей типа сущности "Подразделение" с именем "Отдел продаж". Проверьте, что выбрана верная запись.</t>
+  </si>
+  <si>
+    <t>№</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -905,31 +905,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N3" sqref="N3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="44.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="13.42578125" style="11" customWidth="1"/>
-    <col min="14" max="14" width="17.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.85546875" style="11" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="1" width="5.1328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.265625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.59765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.3984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.59765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.86328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44.3984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.3984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="13.3984375" style="11" customWidth="1"/>
+    <col min="14" max="14" width="17.73046875" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.86328125" style="11" customWidth="1"/>
+    <col min="16" max="16384" width="9.1328125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="4" customFormat="1" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>13</v>
@@ -947,7 +947,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H1" s="24" t="s">
         <v>4</v>
@@ -956,73 +956,73 @@
         <v>2</v>
       </c>
       <c r="J1" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="31" customFormat="1" ht="26.25" x14ac:dyDescent="0.45">
+      <c r="A2" s="26" t="s">
         <v>21</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="O1" s="40" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" s="31" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
-        <v>22</v>
       </c>
       <c r="B2" s="27">
         <v>40554</v>
       </c>
       <c r="C2" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="F2" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="34" t="s">
+      <c r="L2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="33" t="s">
+      <c r="O2" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" s="38" t="s">
-        <v>38</v>
-      </c>
       <c r="P2"/>
     </row>
-    <row r="3" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="18"/>
@@ -1039,7 +1039,7 @@
       <c r="N3" s="19"/>
       <c r="O3" s="19"/>
     </row>
-    <row r="4" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="18"/>
@@ -1056,7 +1056,7 @@
       <c r="N4" s="19"/>
       <c r="O4" s="19"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="13.5" x14ac:dyDescent="0.45">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="7"/>
@@ -1073,7 +1073,7 @@
       <c r="N5" s="20"/>
       <c r="O5" s="19"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="12"/>
     </row>
   </sheetData>
@@ -1093,14 +1093,14 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.86328125" customWidth="1"/>
+    <col min="2" max="2" width="9.3984375" customWidth="1"/>
+    <col min="3" max="3" width="23.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17">
         <v>2</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="17">
         <v>4</v>
       </c>
@@ -1130,10 +1130,10 @@
         <v>9</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="15">
         <v>7</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="15">
         <v>14</v>
       </c>
@@ -1152,17 +1152,17 @@
         <v>9</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
